--- a/AirNavigationRaceLive/AirNavigationRaceLive/Resources/Template.xlsx
+++ b/AirNavigationRaceLive/AirNavigationRaceLive/Resources/Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Shares\ANR_SW_Pendenzen\Vertraege\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\VS2015\Anrl\anrl\AirNavigationRaceLive\AirNavigationRaceLive\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21486" windowHeight="7290" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21486" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Lastname</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Lastname + Firstname</t>
+  </si>
+  <si>
+    <t>CNumber</t>
   </si>
 </sst>
 </file>
@@ -126,9 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -411,11 +416,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.83984375" customWidth="1"/>
+    <col min="2" max="2" width="16.578125" customWidth="1"/>
+    <col min="3" max="3" width="44.3671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
@@ -1307,6 +1317,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="19.47265625" customWidth="1"/>
+    <col min="4" max="4" width="26.47265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
@@ -1344,20 +1358,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="7.89453125" customWidth="1"/>
+    <col min="2" max="2" width="10.9453125" customWidth="1"/>
+    <col min="3" max="3" width="11.734375" customWidth="1"/>
+    <col min="4" max="4" width="24.26171875" customWidth="1"/>
+    <col min="5" max="5" width="19.3671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.20703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1365,13 +1389,13 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1382,608 +1406,23 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
       <c r="K3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
-        <v>3</v>
-      </c>
       <c r="K4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="K5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
-        <f t="shared" ref="A68:A100" si="1">A67+1</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100">
-        <f t="shared" si="1"/>
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1996,6 +1435,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/AirNavigationRaceLive/AirNavigationRaceLive/Resources/Template.xlsx
+++ b/AirNavigationRaceLive/AirNavigationRaceLive/Resources/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21486" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21486" windowHeight="7290" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Lastname</t>
   </si>
@@ -86,12 +86,18 @@
   </si>
   <si>
     <t>CNumber</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,11 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -416,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1318,8 +1326,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="19.47265625" customWidth="1"/>
-    <col min="4" max="4" width="26.47265625" customWidth="1"/>
+    <col min="2" max="2" width="12.26171875" customWidth="1"/>
+    <col min="3" max="3" width="33.68359375" customWidth="1"/>
+    <col min="4" max="4" width="40.05078125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1360,19 +1369,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.89453125" customWidth="1"/>
-    <col min="2" max="2" width="10.9453125" customWidth="1"/>
-    <col min="3" max="3" width="11.734375" customWidth="1"/>
-    <col min="4" max="4" width="24.26171875" customWidth="1"/>
-    <col min="5" max="5" width="19.3671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.5234375" customWidth="1"/>
+    <col min="3" max="3" width="13.47265625" customWidth="1"/>
+    <col min="4" max="4" width="44.26171875" customWidth="1"/>
+    <col min="5" max="5" width="12.1015625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.62890625" style="5" customWidth="1"/>
     <col min="8" max="8" width="6.20703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1389,23 +1398,27 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="3"/>
       <c r="K2" t="s">
         <v>14</v>
       </c>
